--- a/biology/Médecine/1373_en_santé_et_médecine/1373_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1373_en_santé_et_médecine/1373_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1373_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1373_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1373 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1373_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1373_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10 février : par la bulle Ex certis causa, le pape Grégoire XI ouvre une enquête sur la situation des commanderies hospitalières d'Aquitaine et de Provence[1].
-20 août : à Aurillac, en Auvergne, une bulle du pape Grégoire XI réunit l'hôpital Saint-Jean-du-Buis à celui de la Trinité[2].
-Fondation de la guilde des épiciers de Londres (Company of Grocers (en)), où les apothicaires resteront inclus jusqu'à la création, en 1617, de la Society of Apothecaries (en)[3].
-Fondation à Montauban, dans le Languedoc, de l'hôpital Saint-Jacques, dit « hôpital Lautier », devenu hôpital général en 1676 par fusion avec les hôpitaux de Paria et de Montauriol[4].
-Fondation d'un hospice à Hermance, aujourd'hui dans le canton de Genève[5].
-Ibn Khaldoun décrit pour la première fois la trypanosomiase humaine ou maladie du sommeil, dont meurt Mari Diata II, empereur du Mali[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10 février : par la bulle Ex certis causa, le pape Grégoire XI ouvre une enquête sur la situation des commanderies hospitalières d'Aquitaine et de Provence.
+20 août : à Aurillac, en Auvergne, une bulle du pape Grégoire XI réunit l'hôpital Saint-Jean-du-Buis à celui de la Trinité.
+Fondation de la guilde des épiciers de Londres (Company of Grocers (en)), où les apothicaires resteront inclus jusqu'à la création, en 1617, de la Society of Apothecaries (en).
+Fondation à Montauban, dans le Languedoc, de l'hôpital Saint-Jacques, dit « hôpital Lautier », devenu hôpital général en 1676 par fusion avec les hôpitaux de Paria et de Montauriol.
+Fondation d'un hospice à Hermance, aujourd'hui dans le canton de Genève.
+Ibn Khaldoun décrit pour la première fois la trypanosomiase humaine ou maladie du sommeil, dont meurt Mari Diata II, empereur du Mali.</t>
         </is>
       </c>
     </row>
